--- a/scripts/TribalLeadership_WithScreenshots_AndURLs.xlsx
+++ b/scripts/TribalLeadership_WithScreenshots_AndURLs.xlsx
@@ -958,7 +958,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>http://akiachak.org</t>
+          <t>http://gmail.com</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>akiachak_org.png</t>
+          <t>gmail_com.png</t>
         </is>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>http://www.cheeshna.com</t>
+          <t>http://cheeshna.com</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>http://chickaloon-nsn.gov</t>
+          <t>http://www.chickaloon.org</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>chickaloon-nsn_gov.png</t>
+          <t>chickaloon_org.png</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>http://www.chilkat-nsn.gov</t>
+          <t>http://chilkat-nsn.gov</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>http://kawerak.org</t>
+          <t>http://www.kawerak.org</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
